--- a/ГрафикРабот/ГрафикРабот.xlsx
+++ b/ГрафикРабот/ГрафикРабот.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
@@ -15,6 +15,95 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1.Определить эксплуатационный диапазон чисел Рейнольдса
+2.Определить аэродинамический профиль крыла и хвостового оперения. Выбор основывается на скоростном режиме ЛА и массовых характеристиках
+3.Вычислить геомерические характеристики крыла, хвостового опрения и фюзеляжа. Выбрать размер и положение рулей
+4.На основе выюранных значений геометрии расчитать статическую устойчивость и динамические производные, характерезующие динамическую устойчивость ЛА. По эти данным определить допустимый диапазон центровок</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1.Оценить потребную тягу для разных режимов полета: набор высоты, горизонтальный полет, координированный поворот
+2.На основе оценок выше выбрать подходящий мотор и винт к нему, покрывающий диапазон потребной тяги
+3.Для выбранного мотора из спецификации определить его требования по току и напряжения. На основе этих выводов дать рекомендацию по выбору элементов питания, их количеству, току отдачи и выходного напряжения</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1.На основе предложенного двигателя и его характеристик, потребления полетного контроллера определить тип, конфигурацию батарей</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>2.Оценить максимальное время, которое ЛА может оставаться в воздухе при различных загрузках</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
@@ -166,7 +255,7 @@
     <numFmt numFmtId="165" formatCode="\Н\е\д\ \1"/>
     <numFmt numFmtId="166" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +335,27 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -590,24 +700,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -615,44 +707,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,30 +740,84 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Стиль 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -733,84 +843,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3278CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3278CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3278CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1123,14 +1155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,15 +1177,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="42"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1163,10 +1195,10 @@
         <v>45726</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1177,10 +1209,10 @@
         <v>45730</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -1193,22 +1225,22 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="7">
@@ -1310,12 +1342,12 @@
       <c r="AE5"/>
     </row>
     <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="10">
         <v>1</v>
       </c>
@@ -1391,23 +1423,23 @@
       <c r="AE6"/>
     </row>
     <row r="7" spans="1:31" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44">
+      <c r="B7" s="46"/>
+      <c r="C7" s="26">
         <v>45726</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="27">
         <v>45734</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="28">
         <f>D7-C7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1432,21 +1464,21 @@
       <c r="AD7" s="14"/>
     </row>
     <row r="8" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32">
         <v>45726</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="33">
         <v>45734</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="34">
         <f>IF(C8="","",D8-C8)</f>
         <v>8</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="35">
         <v>0</v>
       </c>
       <c r="G8" s="14"/>
@@ -1465,33 +1497,33 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="37" t="s">
+      <c r="W8" s="20"/>
+      <c r="X8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="24"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="18"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
     </row>
     <row r="9" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32">
         <v>45726</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="33">
         <v>45734</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="34">
         <f t="shared" ref="E9:E13" si="6">IF(C9="","",D9-C9)</f>
         <v>8</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="35">
         <v>0</v>
       </c>
       <c r="G9" s="14"/>
@@ -1510,33 +1542,33 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="30" t="s">
+      <c r="W9" s="21"/>
+      <c r="X9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="24"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="18"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
     </row>
     <row r="10" spans="1:31" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32">
         <v>45726</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="33">
         <v>45734</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="34">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="35">
         <v>0</v>
       </c>
       <c r="G10" s="14"/>
@@ -1555,33 +1587,33 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="31" t="s">
+      <c r="W10" s="24"/>
+      <c r="X10" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="24"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="18"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
     </row>
     <row r="11" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32">
         <v>45726</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="33">
         <v>45734</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="34">
         <f>IF(C11="","",D11-C11)</f>
         <v>8</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="35">
         <v>0</v>
       </c>
       <c r="G11" s="14"/>
@@ -1600,33 +1632,33 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="41" t="s">
+      <c r="W11" s="25"/>
+      <c r="X11" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="24"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="18"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
     </row>
     <row r="12" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <v>45726</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="33">
         <v>45734</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="34">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="35">
         <v>1</v>
       </c>
       <c r="G12" s="14"/>
@@ -1645,31 +1677,31 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
     </row>
     <row r="13" spans="1:31" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32">
         <v>45726</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="33">
         <v>45734</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="34">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="35">
         <v>0</v>
       </c>
       <c r="G13" s="14"/>
@@ -1698,31 +1730,31 @@
       <c r="AD13" s="14"/>
     </row>
     <row r="14" spans="1:31" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="45">
+      <c r="B14" s="45"/>
+      <c r="C14" s="27">
         <v>45736</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="27">
         <v>45794</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="37">
         <f t="shared" ref="E14:E39" si="7">IF(C14="","",D14-C14)</f>
         <v>58</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -1739,21 +1771,21 @@
       <c r="AD14" s="14"/>
     </row>
     <row r="15" spans="1:31" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="58">
+      <c r="B15" s="31"/>
+      <c r="C15" s="39">
         <v>45737</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="33">
         <v>45757</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="34">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="35">
         <v>0</v>
       </c>
       <c r="G15" s="14"/>
@@ -1782,21 +1814,21 @@
       <c r="AD15" s="14"/>
     </row>
     <row r="16" spans="1:31" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="58">
+      <c r="B16" s="31"/>
+      <c r="C16" s="39">
         <v>45737</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="33">
         <v>45757</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="34">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="35">
         <v>0</v>
       </c>
       <c r="G16" s="14"/>
@@ -1825,21 +1857,21 @@
       <c r="AD16" s="14"/>
     </row>
     <row r="17" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="58">
-        <v>45748</v>
-      </c>
-      <c r="D17" s="58">
+      <c r="A17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="39">
+        <v>45737</v>
+      </c>
+      <c r="D17" s="39">
         <v>45778</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="34">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="F17" s="53">
+        <v>41</v>
+      </c>
+      <c r="F17" s="35">
         <v>0</v>
       </c>
       <c r="G17" s="14"/>
@@ -1867,22 +1899,22 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
     </row>
-    <row r="18" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="58">
+    <row r="18" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="39">
         <v>45737</v>
       </c>
-      <c r="D18" s="58">
-        <v>45778</v>
-      </c>
-      <c r="E18" s="52">
+      <c r="D18" s="39">
+        <v>45794</v>
+      </c>
+      <c r="E18" s="34">
         <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="F18" s="53">
+        <v>57</v>
+      </c>
+      <c r="F18" s="35">
         <v>0</v>
       </c>
       <c r="G18" s="14"/>
@@ -1910,22 +1942,22 @@
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
     </row>
-    <row r="19" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="58">
+    <row r="19" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="39">
         <v>45737</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="39">
         <v>45794</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="34">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="35">
         <v>0</v>
       </c>
       <c r="G19" s="14"/>
@@ -1953,22 +1985,22 @@
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
     </row>
-    <row r="20" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="58">
+    <row r="20" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="39">
         <v>45737</v>
       </c>
-      <c r="D20" s="58">
-        <v>45794</v>
-      </c>
-      <c r="E20" s="52">
+      <c r="D20" s="39">
+        <v>45787</v>
+      </c>
+      <c r="E20" s="34">
         <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="F20" s="53">
+        <v>50</v>
+      </c>
+      <c r="F20" s="35">
         <v>0</v>
       </c>
       <c r="G20" s="14"/>
@@ -1996,22 +2028,22 @@
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
     </row>
-    <row r="21" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="58">
-        <v>45737</v>
-      </c>
-      <c r="D21" s="58">
-        <v>45787</v>
-      </c>
-      <c r="E21" s="52">
+    <row r="21" spans="1:30" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="39">
+        <v>45757</v>
+      </c>
+      <c r="D21" s="39">
+        <v>45794</v>
+      </c>
+      <c r="E21" s="34">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="F21" s="53">
+        <v>37</v>
+      </c>
+      <c r="F21" s="35">
         <v>0</v>
       </c>
       <c r="G21" s="14"/>
@@ -2039,22 +2071,22 @@
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
     </row>
-    <row r="22" spans="1:30" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="58">
+    <row r="22" spans="1:30" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="39">
         <v>45757</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="39">
         <v>45794</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="34">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="35">
         <v>0</v>
       </c>
       <c r="G22" s="14"/>
@@ -2082,22 +2114,22 @@
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
     </row>
-    <row r="23" spans="1:30" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="58">
-        <v>45757</v>
-      </c>
-      <c r="D23" s="58">
-        <v>45794</v>
-      </c>
-      <c r="E23" s="52">
+    <row r="23" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="39">
+        <v>45737</v>
+      </c>
+      <c r="D23" s="39">
+        <v>45823</v>
+      </c>
+      <c r="E23" s="34">
         <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="F23" s="53">
+        <v>86</v>
+      </c>
+      <c r="F23" s="35">
         <v>0</v>
       </c>
       <c r="G23" s="14"/>
@@ -2126,21 +2158,21 @@
       <c r="AD23" s="14"/>
     </row>
     <row r="24" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="58">
-        <v>45737</v>
-      </c>
-      <c r="D24" s="58">
+      <c r="A24" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="39">
+        <v>45748</v>
+      </c>
+      <c r="D24" s="39">
         <v>45823</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="34">
         <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="F24" s="53">
+        <v>75</v>
+      </c>
+      <c r="F24" s="35">
         <v>0</v>
       </c>
       <c r="G24" s="14"/>
@@ -2169,23 +2201,18 @@
       <c r="AD24" s="14"/>
     </row>
     <row r="25" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="58">
+      <c r="A25" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="39">
         <v>45748</v>
       </c>
-      <c r="D25" s="58">
-        <v>45823</v>
-      </c>
-      <c r="E25" s="52">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="F25" s="53">
-        <v>0</v>
-      </c>
+      <c r="D25" s="39">
+        <v>45778</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -2212,21 +2239,21 @@
       <c r="AD25" s="14"/>
     </row>
     <row r="26" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="58">
+      <c r="B26" s="31"/>
+      <c r="C26" s="39">
         <v>45757</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="39">
         <v>45797</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="34">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="35">
         <v>0</v>
       </c>
       <c r="G26" s="14"/>
@@ -2255,21 +2282,21 @@
       <c r="AD26" s="14"/>
     </row>
     <row r="27" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="58">
+      <c r="B27" s="31"/>
+      <c r="C27" s="39">
         <v>45736</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="39">
         <v>45794</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="34">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="35">
         <v>0</v>
       </c>
       <c r="G27" s="14"/>
@@ -2298,21 +2325,21 @@
       <c r="AD27" s="14"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="45">
+      <c r="B28" s="45"/>
+      <c r="C28" s="27">
         <v>45794</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="27">
         <v>45855</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="37">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -2323,15 +2350,15 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="19"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="57"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
@@ -2339,21 +2366,21 @@
       <c r="AD28" s="14"/>
     </row>
     <row r="29" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="51">
+      <c r="B29" s="31"/>
+      <c r="C29" s="33">
         <v>45794</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="33">
         <v>45855</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="34">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="35">
         <v>0</v>
       </c>
       <c r="G29" s="14"/>
@@ -2382,21 +2409,21 @@
       <c r="AD29" s="14"/>
     </row>
     <row r="30" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="51">
+      <c r="B30" s="31"/>
+      <c r="C30" s="33">
         <v>45794</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="33">
         <v>45855</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="34">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="35">
         <v>0</v>
       </c>
       <c r="G30" s="14"/>
@@ -2425,21 +2452,21 @@
       <c r="AD30" s="14"/>
     </row>
     <row r="31" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="51">
+      <c r="B31" s="31"/>
+      <c r="C31" s="33">
         <v>45818</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="33">
         <v>45855</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="34">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="35">
         <v>0</v>
       </c>
       <c r="G31" s="14"/>
@@ -2468,21 +2495,21 @@
       <c r="AD31" s="14"/>
     </row>
     <row r="32" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="51">
+      <c r="B32" s="31"/>
+      <c r="C32" s="33">
         <v>45818</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="33">
         <v>45855</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="34">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="35">
         <v>0</v>
       </c>
       <c r="G32" s="14"/>
@@ -2511,21 +2538,21 @@
       <c r="AD32" s="14"/>
     </row>
     <row r="33" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="51">
+      <c r="B33" s="31"/>
+      <c r="C33" s="33">
         <v>45809</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="33">
         <v>45818</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="34">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="35">
         <v>0</v>
       </c>
       <c r="G33" s="14"/>
@@ -2554,21 +2581,21 @@
       <c r="AD33" s="14"/>
     </row>
     <row r="34" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="51">
+      <c r="B34" s="31"/>
+      <c r="C34" s="33">
         <v>45794</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="33">
         <v>45855</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="34">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="35">
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
@@ -2597,21 +2624,21 @@
       <c r="AD34" s="14"/>
     </row>
     <row r="35" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="51">
+      <c r="B35" s="31"/>
+      <c r="C35" s="33">
         <v>45794</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="33">
         <v>45855</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="34">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="35">
         <v>0</v>
       </c>
       <c r="G35" s="14"/>
@@ -2640,21 +2667,21 @@
       <c r="AD35" s="14"/>
     </row>
     <row r="36" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="51">
+      <c r="B36" s="31"/>
+      <c r="C36" s="33">
         <v>45794</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="33">
         <v>45855</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="34">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="35">
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
@@ -2677,27 +2704,27 @@
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="15"/>
-      <c r="AA36" s="24"/>
+      <c r="AA36" s="18"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
     </row>
     <row r="37" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="45">
+      <c r="B37" s="45"/>
+      <c r="C37" s="27">
         <v>45858</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="27">
         <v>45872</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="37">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="F37" s="57"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -2717,28 +2744,28 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="19"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="57"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
     </row>
     <row r="38" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="51">
+      <c r="B38" s="31"/>
+      <c r="C38" s="33">
         <v>45853</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="33">
         <v>45872</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="34">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="35">
         <v>0</v>
       </c>
       <c r="G38" s="14"/>
@@ -2767,21 +2794,21 @@
       <c r="AD38" s="14"/>
     </row>
     <row r="39" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="51">
+      <c r="B39" s="31"/>
+      <c r="C39" s="33">
         <v>45853</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="33">
         <v>45879</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="34">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F39" s="35">
         <v>0</v>
       </c>
       <c r="G39" s="14"/>
@@ -2814,27 +2841,27 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="Q28:Y28"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q28:Y28"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:AD13 G15:AD27 G8:W10 G29:AD36 G38:AD39 G11:X11 AB8:AD11">
+  <conditionalFormatting sqref="G12:AD13 G8:W10 G11:X11 AB8:AD11 G15:AD27 G29:AD36 G38:AD39">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(G$5&gt;=$C8, G$5&lt;=$C8+$E8*$F8 - 1)</formula>
     </cfRule>
@@ -2853,23 +2880,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:W6 G15:W27 G14 V14:W14 G28:K28 G37:O37 G8:W13 G7 P7:W7 X5:AB7 G38:AB39 AC5:AD6 X12:AB27 G29:AB36 X11 AB8:AB11">
+  <conditionalFormatting sqref="G5:W6 G14 V14:W14 G28:K28 G37:O37 G8:W13 G7 P7:W7 X5:AB7 G38:AB39 AC5:AD6 G29:AB36 X11 AB8:AB11 G15:W27 X12:AB27">
     <cfRule type="expression" dxfId="2" priority="25">
       <formula>G$6=$B$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:AD13 G15:AD27 G8:W10 G29:AD36 J38:AD39 G11:X11 AB8:AD11">
+  <conditionalFormatting sqref="G12:AD13 G8:W10 G11:X11 AB8:AD11 G15:AD27 G29:AD36 J38:AD39">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND(G$5 &gt;= $C8, G$5 &lt;= $D8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G14:I14 G28:Q28 Q14:AD14 I7:AD7 Z28:AD28 G37:Z37 AB37:AD37">
+  <conditionalFormatting sqref="G7 G14:I14 Q14:AD14 I7:AD7 G28:Q28 Z28:AD28 G37:Z37 AB37:AD37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(G$5&gt;=$C7, G$5&lt;=$D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
